--- a/docs/LarvaDist_ESM_outputs.xlsx
+++ b/docs/LarvaDist_ESM_outputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqkbuena/Documents/GitHub/LarvaDistModels/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DDBE84-638C-9144-A5F3-FE04E8CA1405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C1F1DF-C0FD-2848-BC1F-83E76AB4E3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20160" windowHeight="19380" xr2:uid="{7A7CCCF9-E43E-A344-8562-15C0408B6DBB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19060" xr2:uid="{7A7CCCF9-E43E-A344-8562-15C0408B6DBB}"/>
   </bookViews>
   <sheets>
     <sheet name="LarvaDist_ESMs" sheetId="1" r:id="rId1"/>
@@ -341,11 +341,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,10 +360,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,9 +681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF52622-07EC-B745-8F2A-EFDD51A52D15}">
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M90" sqref="M90"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R92" sqref="R92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5140,19 +5135,19 @@
       <c r="K84" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L84" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N84" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O84" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P84" s="3" t="s">
+      <c r="L84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Q84" s="2" t="s">
@@ -5249,16 +5244,16 @@
       <c r="L86" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M86" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N86" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O86" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P86" s="3" t="s">
+      <c r="M86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Q86" s="2" t="s">
@@ -5567,16 +5562,16 @@
       <c r="L92" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M92" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N92" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O92" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P92" s="3" t="s">
+      <c r="M92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Q92" s="2" t="s">
@@ -5670,19 +5665,19 @@
       <c r="K94" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P94" s="3" t="s">
+      <c r="L94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Q94" s="2" t="s">
